--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Automatic-answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -712,64 +712,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -784,19 +763,40 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1083,7 +1083,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC13" sqref="AC13"/>
+      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1122,932 +1122,932 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="21" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="26" t="s">
         <v>63</v>
       </c>
       <c r="N1" s="27"/>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="21" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="21" t="s">
+      <c r="R1" s="25"/>
+      <c r="S1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="21" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="22"/>
-      <c r="W1" s="21" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="21" t="s">
+      <c r="X1" s="25"/>
+      <c r="Y1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="21" t="s">
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="21" t="s">
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="AD1" s="22"/>
+      <c r="AD1" s="25"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="U2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="W2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="Y2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="23" t="s">
+      <c r="AA2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AB2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="23" t="s">
+      <c r="AC2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="5">
         <v>2.1</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="5">
         <v>1</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="5">
         <v>2</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="24" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="24" t="s">
+      <c r="N3" s="7"/>
+      <c r="O3" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="24" t="s">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="24" t="s">
+      <c r="R3" s="7"/>
+      <c r="S3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="24" t="s">
+      <c r="T3" s="7"/>
+      <c r="U3" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="V3" s="10"/>
-      <c r="W3" s="24" t="s">
+      <c r="V3" s="7"/>
+      <c r="W3" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="24" t="s">
+      <c r="X3" s="7"/>
+      <c r="Y3" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="24" t="s">
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="24" t="s">
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="AD3" s="10"/>
+      <c r="AD3" s="7"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="5">
         <v>2</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="5">
         <v>2</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="10" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="10" t="s">
+      <c r="M4" s="17"/>
+      <c r="N4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="10" t="s">
+      <c r="O4" s="17"/>
+      <c r="P4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="10" t="s">
+      <c r="Q4" s="17"/>
+      <c r="R4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="S4" s="24"/>
-      <c r="T4" s="10" t="s">
+      <c r="S4" s="17"/>
+      <c r="T4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="24"/>
-      <c r="V4" s="10" t="s">
+      <c r="U4" s="17"/>
+      <c r="V4" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="W4" s="24"/>
-      <c r="X4" s="10" t="s">
+      <c r="W4" s="17"/>
+      <c r="X4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="10" t="s">
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="10" t="s">
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="10" t="s">
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="5">
         <v>3</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="10" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="10" t="s">
+      <c r="M5" s="17"/>
+      <c r="N5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="10" t="s">
+      <c r="O5" s="17"/>
+      <c r="P5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="10" t="s">
+      <c r="Q5" s="17"/>
+      <c r="R5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="S5" s="24"/>
-      <c r="T5" s="10" t="s">
+      <c r="S5" s="17"/>
+      <c r="T5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="U5" s="24"/>
-      <c r="V5" s="10" t="s">
+      <c r="U5" s="17"/>
+      <c r="V5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="W5" s="24"/>
-      <c r="X5" s="10" t="s">
+      <c r="W5" s="17"/>
+      <c r="X5" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="10" t="s">
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="10" t="s">
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="10" t="s">
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="5">
         <v>2.4</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="5">
         <v>4</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="S6" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="24" t="s">
+      <c r="U6" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="V6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W6" s="24" t="s">
+      <c r="W6" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="X6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y6" s="24" t="s">
+      <c r="Y6" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="Z6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AA6" s="24" t="s">
+      <c r="AA6" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="AB6" s="10" t="s">
+      <c r="AB6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AC6" s="24" t="s">
+      <c r="AC6" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="AD6" s="10" t="s">
+      <c r="AD6" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="13"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="10"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="11" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="13"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="10"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="5">
         <v>4.2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="5">
         <v>2</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="5">
         <v>4</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="6">
         <v>2</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="R9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="T9" s="10" t="s">
+      <c r="T9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="24" t="s">
+      <c r="U9" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="V9" s="10" t="s">
+      <c r="V9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="W9" s="24" t="s">
+      <c r="W9" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="X9" s="10" t="s">
+      <c r="X9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" s="24" t="s">
+      <c r="Y9" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="Z9" s="10" t="s">
+      <c r="Z9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AA9" s="24" t="s">
+      <c r="AA9" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="AB9" s="10" t="s">
+      <c r="AB9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AC9" s="24" t="s">
+      <c r="AC9" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="AD9" s="10" t="s">
+      <c r="AD9" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="13"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="10"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="5">
         <v>1</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="5">
         <v>5</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="6">
         <v>1</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Q11" s="24" t="s">
+      <c r="Q11" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="R11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="S11" s="24" t="s">
+      <c r="S11" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="T11" s="10" t="s">
+      <c r="T11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="24" t="s">
+      <c r="U11" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="V11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="W11" s="24" t="s">
+      <c r="W11" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="X11" s="10" t="s">
+      <c r="X11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Y11" s="24" t="s">
+      <c r="Y11" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="Z11" s="10" t="s">
+      <c r="Z11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AA11" s="24" t="s">
+      <c r="AA11" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="AB11" s="10" t="s">
+      <c r="AB11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AC11" s="24" t="s">
+      <c r="AC11" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="AD11" s="10" t="s">
+      <c r="AD11" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="5">
         <v>5.2</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="5">
         <v>2</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="5">
         <v>5</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="6">
         <v>1</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="24" t="s">
+      <c r="M12" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="O12" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="Q12" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="R12" s="10" t="s">
+      <c r="R12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="S12" s="24" t="s">
+      <c r="S12" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="T12" s="10" t="s">
+      <c r="T12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="U12" s="24" t="s">
+      <c r="U12" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="V12" s="10" t="s">
+      <c r="V12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="W12" s="24" t="s">
+      <c r="W12" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="X12" s="10" t="s">
+      <c r="X12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Y12" s="24" t="s">
+      <c r="Y12" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="Z12" s="10" t="s">
+      <c r="Z12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AA12" s="24" t="s">
+      <c r="AA12" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="AB12" s="10" t="s">
+      <c r="AB12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AC12" s="24" t="s">
+      <c r="AC12" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="AD12" s="10" t="s">
+      <c r="AD12" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="5">
         <v>5.3</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="5">
         <v>3</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="5">
         <v>5</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="6">
         <v>1</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="K13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M13" s="24" t="s">
+      <c r="M13" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O13" s="24" t="s">
+      <c r="O13" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="10" t="s">
+      <c r="P13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q13" s="24" t="s">
+      <c r="Q13" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="R13" s="10" t="s">
+      <c r="R13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S13" s="24" t="s">
+      <c r="S13" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="T13" s="10" t="s">
+      <c r="T13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="U13" s="24" t="s">
+      <c r="U13" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="V13" s="10" t="s">
+      <c r="V13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W13" s="24" t="s">
+      <c r="W13" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="X13" s="10" t="s">
+      <c r="X13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Y13" s="24" t="s">
+      <c r="Y13" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="Z13" s="10" t="s">
+      <c r="Z13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AA13" s="24" t="s">
+      <c r="AA13" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="AB13" s="10" t="s">
+      <c r="AB13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AC13" s="24" t="s">
+      <c r="AC13" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AD13" s="10" t="s">
+      <c r="AD13" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="18"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="13"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H15" s="2"/>
@@ -2123,6 +2123,10 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
@@ -2133,10 +2137,6 @@
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="听说教程3" sheetId="1" r:id="rId1"/>
+    <sheet name="视听说教程3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="160">
   <si>
     <t>Listening</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,6 +571,86 @@
   </si>
   <si>
     <t>407</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ouside view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Listening in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity 2</t>
+  </si>
+  <si>
+    <t>Activity 3</t>
+  </si>
+  <si>
+    <t>Activity 4</t>
+  </si>
+  <si>
+    <t>Passage 1: Activity 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passage 1: Activity 2</t>
+  </si>
+  <si>
+    <t>Passage 1: Activity 3</t>
+  </si>
+  <si>
+    <t>Passage 2: Activity 1</t>
+  </si>
+  <si>
+    <t>Passage 2: Activity 2</t>
+  </si>
+  <si>
+    <t>Passage 2: Activity 3</t>
+  </si>
+  <si>
+    <t>Target: 10.13.54.81/book/book41/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dj31drag.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dj34mc.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dj31checkboxTable.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dj34drag.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dj44mc.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dj41blank.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dj42drag.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dj42drag.php/dj44dragOne.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dj45checkboxTable.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,6 +856,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -797,6 +881,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,9 +1168,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1132,46 +1219,46 @@
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="24" t="s">
+      <c r="R1" s="26"/>
+      <c r="S1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="25"/>
-      <c r="U1" s="24" t="s">
+      <c r="T1" s="26"/>
+      <c r="U1" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="25"/>
-      <c r="W1" s="24" t="s">
+      <c r="V1" s="26"/>
+      <c r="W1" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="24" t="s">
+      <c r="X1" s="26"/>
+      <c r="Y1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="24" t="s">
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="24" t="s">
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="AD1" s="25"/>
+      <c r="AD1" s="26"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
@@ -1260,10 +1347,10 @@
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1332,8 +1419,8 @@
       <c r="AD3" s="7"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1400,8 +1487,8 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1468,8 +1555,8 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1556,8 +1643,8 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1592,8 +1679,8 @@
       <c r="AD7" s="10"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
@@ -1626,8 +1713,8 @@
       <c r="AD8" s="10"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
@@ -1714,7 +1801,7 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
@@ -1750,8 +1837,8 @@
       <c r="AD10" s="10"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1840,8 +1927,8 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1928,8 +2015,8 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
@@ -2016,8 +2103,8 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
@@ -2142,4 +2229,141 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -859,6 +859,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -869,18 +881,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1219,46 +1219,46 @@
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="27" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="25" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="25" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="25" t="s">
+      <c r="R1" s="30"/>
+      <c r="S1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="26"/>
-      <c r="U1" s="25" t="s">
+      <c r="T1" s="30"/>
+      <c r="U1" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="25" t="s">
+      <c r="V1" s="30"/>
+      <c r="W1" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="25" t="s">
+      <c r="X1" s="30"/>
+      <c r="Y1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="25" t="s">
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="25" t="s">
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AD1" s="26"/>
+      <c r="AD1" s="30"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
@@ -1347,10 +1347,10 @@
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1419,8 +1419,8 @@
       <c r="AD3" s="7"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1487,8 +1487,8 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1555,8 +1555,8 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1643,8 +1643,8 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="31" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1679,8 +1679,8 @@
       <c r="AD7" s="10"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
@@ -1713,8 +1713,8 @@
       <c r="AD8" s="10"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
@@ -1801,7 +1801,7 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
@@ -1837,8 +1837,8 @@
       <c r="AD10" s="10"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1927,8 +1927,8 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
@@ -2015,8 +2015,8 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
@@ -2103,8 +2103,8 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
@@ -2210,11 +2210,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
@@ -2224,6 +2219,11 @@
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="W1:X1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2236,7 +2236,7 @@
   <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
